--- a/src/analysis_examples/circadb/results_jtk/cosinor_10389701_akap1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10389701_akap1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27717610597795406, 0.3636743138813947]</t>
+          <t>[0.27660990647713257, 0.3642405133822162]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.410427744185654e-13</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.410427744185654e-13</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.295631805084079</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4583737578393517, 0.5079956078607171]</t>
+          <t>[0.45837316894349156, 0.5079961967565771]</t>
         </is>
       </c>
       <c r="U2" t="n">

--- a/src/analysis_examples/circadb/results_jtk/cosinor_10389701_akap1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10389701_akap1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27660990647713257, 0.3642405133822162]</t>
+          <t>[0.2769814576383788, 0.36386896222097]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>6.989964163039986e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>6.989964163039986e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.295631805084079</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.45837316894349156, 0.5079961967565771]</t>
+          <t>[0.4583886872240378, 0.5079806784760309]</t>
         </is>
       </c>
       <c r="U2" t="n">
